--- a/xlsx/美国监禁制度_intext.xlsx
+++ b/xlsx/美国监禁制度_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="476">
   <si>
     <t>美国监禁制度</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国监禁制度</t>
+    <t>政策_政策_美国_美国监禁制度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/felony</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%87%8B</t>
   </si>
   <si>
-    <t>保釋</t>
+    <t>保释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E9%87%8A</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A5%A8</t>
   </si>
   <si>
-    <t>傳票</t>
+    <t>传票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%85%8B%E7%B8%A3_(%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫克縣 (伊利諾伊州)</t>
+    <t>库克县 (伊利诺伊州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%BD%AA%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>認罪協商</t>
+    <t>认罪协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%9C%9F%E5%BE%92%E5%88%91</t>
   </si>
   <si>
-    <t>無期徒刑</t>
+    <t>无期徒刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98%E7%8A%AF%E7%BD%AA</t>
   </si>
   <si>
-    <t>白領犯罪</t>
+    <t>白领犯罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BA%A4</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95%E7%AC%AC%E5%85%AB%E4%BF%AE%E6%AD%A3%E6%A1%88</t>
   </si>
   <si>
-    <t>美國憲法第八修正案</t>
+    <t>美国宪法第八修正案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9F%AF%E6%AD%A3%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>美國矯正公司</t>
+    <t>美国矫正公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93%E7%B8%A3_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢密爾頓縣 (田納西州)</t>
+    <t>汉密尔顿县 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%BC%AF%E5%85%8B%E7%B8%A3_(%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>拉伯克縣 (德克薩斯州)</t>
+    <t>拉伯克县 (德克萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>威爾士</t>
+    <t>威尔士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A0%B8</t>
   </si>
   <si>
-    <t>結核</t>
+    <t>结核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%BB%8B%E7%97%85</t>
@@ -575,9 +575,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8</t>
   </si>
   <si>
-    <t>美國司法部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
   </si>
   <si>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -683,7 +680,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -737,9 +734,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -785,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
@@ -845,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -863,13 +857,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -971,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -1019,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -1031,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -1049,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -1061,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -1121,13 +1115,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -1139,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -1151,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -1163,13 +1157,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1259,15 +1253,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1277,7 +1268,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1331,7 +1322,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1367,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1385,7 +1376,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1415,19 +1406,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1439,7 +1430,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -4577,7 +4568,7 @@
         <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>44</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4603,10 +4594,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4632,10 +4623,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4661,10 +4652,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -4690,10 +4681,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4719,10 +4710,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -4748,10 +4739,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>5</v>
@@ -4777,10 +4768,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4806,10 +4797,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4835,10 +4826,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4864,10 +4855,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4893,10 +4884,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4922,10 +4913,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4951,10 +4942,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4980,10 +4971,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5009,10 +5000,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5038,10 +5029,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5067,10 +5058,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5096,10 +5087,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5125,10 +5116,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5154,10 +5145,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5183,10 +5174,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5212,10 +5203,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>5</v>
@@ -5241,10 +5232,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5270,10 +5261,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5299,10 +5290,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5328,10 +5319,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5357,10 +5348,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -5386,10 +5377,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -5444,10 +5435,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5473,10 +5464,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5502,10 +5493,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5560,10 +5551,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5589,10 +5580,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5618,10 +5609,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5647,10 +5638,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5676,10 +5667,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5705,10 +5696,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5734,10 +5725,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5763,10 +5754,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5792,10 +5783,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5850,10 +5841,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5879,10 +5870,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5908,10 +5899,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5966,10 +5957,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5995,10 +5986,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -6024,10 +6015,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6053,10 +6044,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6082,10 +6073,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6111,10 +6102,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6140,10 +6131,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6169,10 +6160,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6198,10 +6189,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6227,10 +6218,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6256,10 +6247,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6285,10 +6276,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6314,10 +6305,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6343,10 +6334,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6372,10 +6363,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -6401,10 +6392,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6430,10 +6421,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6459,10 +6450,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6488,10 +6479,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6517,10 +6508,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6546,10 +6537,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6575,10 +6566,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6604,10 +6595,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6633,10 +6624,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6662,10 +6653,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6691,10 +6682,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6720,10 +6711,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6749,10 +6740,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -6778,10 +6769,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>15</v>
@@ -6807,10 +6798,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6836,10 +6827,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6865,10 +6856,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6894,10 +6885,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6923,10 +6914,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6952,10 +6943,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6981,10 +6972,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7039,10 +7030,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7068,10 +7059,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7097,10 +7088,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7126,10 +7117,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7155,10 +7146,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7184,10 +7175,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7213,10 +7204,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7271,10 +7262,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -7300,10 +7291,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7329,10 +7320,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7358,10 +7349,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7387,10 +7378,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7416,10 +7407,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F194" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7445,10 +7436,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F195" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7474,10 +7465,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7503,10 +7494,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F197" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7532,10 +7523,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7561,10 +7552,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7590,10 +7581,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7619,10 +7610,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7648,10 +7639,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7677,10 +7668,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F203" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G203" t="n">
         <v>18</v>
@@ -7706,10 +7697,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7735,10 +7726,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F205" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G205" t="n">
         <v>7</v>
@@ -7764,10 +7755,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F206" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G206" t="n">
         <v>36</v>
@@ -7793,10 +7784,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F207" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -7822,10 +7813,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7851,10 +7842,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F209" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7880,10 +7871,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F210" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7909,10 +7900,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F211" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7938,10 +7929,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F212" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G212" t="n">
         <v>5</v>
@@ -7967,10 +7958,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F213" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G213" t="n">
         <v>9</v>
@@ -7996,10 +7987,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F214" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8025,10 +8016,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F215" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -8054,10 +8045,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F216" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8083,10 +8074,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F217" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8112,10 +8103,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F218" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8141,10 +8132,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F219" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8170,10 +8161,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F220" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8199,10 +8190,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8228,10 +8219,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8257,10 +8248,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8286,10 +8277,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F224" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8315,10 +8306,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F225" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8344,10 +8335,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F226" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8373,10 +8364,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F227" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8402,10 +8393,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F228" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8431,10 +8422,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F229" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8460,10 +8451,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F230" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -8489,10 +8480,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8518,10 +8509,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8547,10 +8538,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8576,10 +8567,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F234" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8605,10 +8596,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F235" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8634,10 +8625,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8663,10 +8654,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8692,10 +8683,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G238" t="n">
         <v>10</v>
@@ -8721,10 +8712,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8750,10 +8741,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8779,10 +8770,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8808,10 +8799,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8837,10 +8828,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8866,10 +8857,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8895,10 +8886,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>4</v>
@@ -8924,10 +8915,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -8953,10 +8944,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -8982,10 +8973,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
